--- a/data/trans_orig/CAGE_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/CAGE_R-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>7480</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3608</v>
+        <v>3626</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13494</v>
+        <v>14790</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01280460498568032</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006176962977032109</v>
+        <v>0.006207044890554497</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02310027338912847</v>
+        <v>0.02531850993545397</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9151</v>
+        <v>8223</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002851574802183629</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.00992114555322283</v>
+        <v>0.008915480077638064</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -786,19 +786,19 @@
         <v>10110</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5593</v>
+        <v>4983</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>18316</v>
+        <v>18123</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.006710901263229946</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003712470719426785</v>
+        <v>0.003307682019668252</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01215839632068069</v>
+        <v>0.01203026656690238</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>576661</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>570647</v>
+        <v>569351</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>580533</v>
+        <v>580515</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9871953950143196</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9768997266108718</v>
+        <v>0.9746814900645461</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9938230370229679</v>
+        <v>0.9937929551094454</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>883</v>
@@ -836,7 +836,7 @@
         <v>919703</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>913182</v>
+        <v>914110</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>922333</v>
@@ -845,7 +845,7 @@
         <v>0.9971484251978163</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9900788544467769</v>
+        <v>0.9910845199223619</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -857,19 +857,19 @@
         <v>1496364</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1488158</v>
+        <v>1488351</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1500881</v>
+        <v>1501491</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9932890987367701</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9878416036793193</v>
+        <v>0.9879697334330976</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9962875292805732</v>
+        <v>0.9966923179803318</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>7365</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3013</v>
+        <v>2993</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14502</v>
+        <v>15734</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.006833070084886928</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002794851232768523</v>
+        <v>0.002776290916813912</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01345402092532081</v>
+        <v>0.01459707576873883</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -982,19 +982,19 @@
         <v>3677</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10249</v>
+        <v>10785</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.003476524729480538</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0009290294779745925</v>
+        <v>0.0009253767273510534</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.009691804600568678</v>
+        <v>0.01019816546083883</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>10</v>
@@ -1003,19 +1003,19 @@
         <v>11042</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5417</v>
+        <v>5702</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>20028</v>
+        <v>20419</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.005170795559990491</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002536629255305344</v>
+        <v>0.002669986914137678</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.009378694313128428</v>
+        <v>0.00956196597374339</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1070529</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1063392</v>
+        <v>1062160</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1074881</v>
+        <v>1074901</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.993166929915113</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9865459790746792</v>
+        <v>0.9854029242312612</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9972051487672315</v>
+        <v>0.9972237090831861</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1025</v>
@@ -1053,19 +1053,19 @@
         <v>1053861</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1047289</v>
+        <v>1046753</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1056556</v>
+        <v>1056559</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9965234752705194</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.990308195399431</v>
+        <v>0.9898018345391608</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9990709705220254</v>
+        <v>0.999074623272649</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2073</v>
@@ -1074,19 +1074,19 @@
         <v>2124390</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2115404</v>
+        <v>2115013</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2130015</v>
+        <v>2129730</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9948292044400096</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9906213056868709</v>
+        <v>0.9904380340262566</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9974633707446946</v>
+        <v>0.9973300130858623</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>7583</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2985</v>
+        <v>3060</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15780</v>
+        <v>15200</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.006760834719031354</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002661040631688805</v>
+        <v>0.002728150389667373</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01406918251956249</v>
+        <v>0.0135520959034902</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5602</v>
+        <v>5083</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.001023865892478526</v>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.005636173551999758</v>
+        <v>0.005113863744833209</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -1220,19 +1220,19 @@
         <v>8601</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3911</v>
+        <v>3975</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>17914</v>
+        <v>17374</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.004065439206511378</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001848557995154853</v>
+        <v>0.001878854163108473</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.008467721861562576</v>
+        <v>0.008212652123362635</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>1114011</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1105814</v>
+        <v>1106394</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1118609</v>
+        <v>1118534</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9932391652809687</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9859308174804374</v>
+        <v>0.9864479040965097</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9973389593683112</v>
+        <v>0.9972718496103327</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>981</v>
@@ -1270,7 +1270,7 @@
         <v>992922</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>988338</v>
+        <v>988857</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>993940</v>
@@ -1279,7 +1279,7 @@
         <v>0.9989761341075215</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9943638264480007</v>
+        <v>0.9948861362551668</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1291,19 +1291,19 @@
         <v>2106933</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2097620</v>
+        <v>2098160</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2111623</v>
+        <v>2111559</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9959345607934886</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9915322781384375</v>
+        <v>0.9917873478766399</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9981514420048451</v>
+        <v>0.9981211458368915</v>
       </c>
     </row>
     <row r="12">
@@ -1398,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9020</v>
+        <v>7673</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.003411605383113201</v>
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02016917878678268</v>
+        <v>0.01715741429706976</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -1419,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>4102</v>
+        <v>5104</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.002982960062995433</v>
@@ -1428,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01202426801800947</v>
+        <v>0.01496093827459132</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2</v>
@@ -1440,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>9307</v>
+        <v>9365</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.003226111126315923</v>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01180544401705213</v>
+        <v>0.01187866146195624</v>
       </c>
     </row>
     <row r="14">
@@ -1466,7 +1466,7 @@
         <v>445674</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>438180</v>
+        <v>439527</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>447200</v>
@@ -1475,7 +1475,7 @@
         <v>0.9965883946168868</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9798308212132173</v>
+        <v>0.9828425857029303</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1487,7 +1487,7 @@
         <v>340140</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>337056</v>
+        <v>336054</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>341158</v>
@@ -1496,7 +1496,7 @@
         <v>0.9970170399370045</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9879757319819905</v>
+        <v>0.9850390617254087</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1508,7 +1508,7 @@
         <v>785815</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>779051</v>
+        <v>778993</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>788358</v>
@@ -1517,7 +1517,7 @@
         <v>0.9967738888736841</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9881945559829477</v>
+        <v>0.9881213385380436</v>
       </c>
       <c r="W14" s="6" t="n">
         <v>1</v>
@@ -1612,19 +1612,19 @@
         <v>23954</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14620</v>
+        <v>15899</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>35834</v>
+        <v>36236</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.007414073980727347</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004525233638272716</v>
+        <v>0.004920929559949147</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01109123864070141</v>
+        <v>0.01121562839165945</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -1633,19 +1633,19 @@
         <v>8342</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3437</v>
+        <v>3274</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16310</v>
+        <v>16268</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.002516458178446826</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.001036737107082495</v>
+        <v>0.0009875195638885702</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.00492016138616814</v>
+        <v>0.004907528380006794</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>30</v>
@@ -1654,19 +1654,19 @@
         <v>32296</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>21527</v>
+        <v>21519</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>44892</v>
+        <v>44798</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.00493378916400489</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003288679480744275</v>
+        <v>0.003287400385475285</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.006858144095527499</v>
+        <v>0.006843831463908627</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3206875</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3194995</v>
+        <v>3194593</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3216209</v>
+        <v>3214930</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9925859260192726</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9889087613592986</v>
+        <v>0.9887843716083404</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9954747663617273</v>
+        <v>0.9950790704400508</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3227</v>
@@ -1704,19 +1704,19 @@
         <v>3306627</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3298659</v>
+        <v>3298701</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3311532</v>
+        <v>3311695</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9974835418215532</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9950798386138314</v>
+        <v>0.9950924716199936</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.998963262892917</v>
+        <v>0.9990124804361119</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6372</v>
@@ -1725,19 +1725,19 @@
         <v>6513502</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6500906</v>
+        <v>6501000</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6524271</v>
+        <v>6524279</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9950662108359951</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9931418559044725</v>
+        <v>0.9931561685360912</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9967113205192557</v>
+        <v>0.9967125996145247</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>26069</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17220</v>
+        <v>16778</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>38095</v>
+        <v>38486</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02497208265773219</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01649499039568829</v>
+        <v>0.01607148388060501</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03649161047151553</v>
+        <v>0.03686645655103402</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -2103,19 +2103,19 @@
         <v>26069</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>16932</v>
+        <v>17854</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>38485</v>
+        <v>38689</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01204753914563726</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007824757019413209</v>
+        <v>0.008251180742585405</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01778533715854374</v>
+        <v>0.01787970926185115</v>
       </c>
     </row>
     <row r="5">
@@ -2132,19 +2132,19 @@
         <v>1017866</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1005840</v>
+        <v>1005449</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1026715</v>
+        <v>1027157</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9750279173422678</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9635083895284842</v>
+        <v>0.9631335434489656</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9835050096043118</v>
+        <v>0.9839285161193948</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1031</v>
@@ -2166,19 +2166,19 @@
         <v>2137794</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2125378</v>
+        <v>2125174</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2146931</v>
+        <v>2146009</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9879524608543627</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9822146628414565</v>
+        <v>0.9821202907381493</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9921752429805868</v>
+        <v>0.9917488192574148</v>
       </c>
     </row>
     <row r="6">
@@ -2270,19 +2270,19 @@
         <v>17612</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10204</v>
+        <v>10142</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>29804</v>
+        <v>29640</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01802577607518322</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01044393155263189</v>
+        <v>0.01038031316290846</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03050326790159885</v>
+        <v>0.03033520930880525</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -2294,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4988</v>
+        <v>5620</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.001031472445800951</v>
@@ -2303,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.004558573695752441</v>
+        <v>0.005136230406606536</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>17</v>
@@ -2312,19 +2312,19 @@
         <v>18741</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11141</v>
+        <v>11172</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>31062</v>
+        <v>32024</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.009047883139755644</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.005378757385077088</v>
+        <v>0.005393425538776584</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01499614880378386</v>
+        <v>0.01546056127548679</v>
       </c>
     </row>
     <row r="8">
@@ -2341,19 +2341,19 @@
         <v>959461</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>947269</v>
+        <v>947433</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>966869</v>
+        <v>966931</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9819742239248168</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9694967320984015</v>
+        <v>0.9696647906911947</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9895560684473681</v>
+        <v>0.9896196868370917</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1019</v>
@@ -2362,7 +2362,7 @@
         <v>1093133</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1089274</v>
+        <v>1088642</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>1094262</v>
@@ -2371,7 +2371,7 @@
         <v>0.9989685275541991</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.995441426304248</v>
+        <v>0.9948637695933934</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -2383,19 +2383,19 @@
         <v>2052594</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2040273</v>
+        <v>2039311</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2060194</v>
+        <v>2060163</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9909521168602443</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9850038511962165</v>
+        <v>0.9845394387245133</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.994621242614923</v>
+        <v>0.9946065744612235</v>
       </c>
     </row>
     <row r="9">
@@ -2487,19 +2487,19 @@
         <v>13215</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6806</v>
+        <v>7165</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>23139</v>
+        <v>22851</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01493066846287825</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.007689445769124937</v>
+        <v>0.008094635895493415</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02614283635554169</v>
+        <v>0.02581744195611485</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -2508,19 +2508,19 @@
         <v>3995</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10074</v>
+        <v>9307</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0045621029009713</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.001144173331861403</v>
+        <v>0.001141231980841628</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01150302003604873</v>
+        <v>0.01062720995036497</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>16</v>
@@ -2529,19 +2529,19 @@
         <v>17211</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9878</v>
+        <v>10034</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>27090</v>
+        <v>28460</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.009773822630647428</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005609620398528776</v>
+        <v>0.005698348236328187</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01538385979731005</v>
+        <v>0.01616224222149084</v>
       </c>
     </row>
     <row r="11">
@@ -2558,19 +2558,19 @@
         <v>871900</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>861976</v>
+        <v>862264</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>878309</v>
+        <v>877950</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9850693315371217</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9738571636444585</v>
+        <v>0.9741825580438853</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9923105542308751</v>
+        <v>0.9919053641045067</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>817</v>
@@ -2579,19 +2579,19 @@
         <v>871801</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>865722</v>
+        <v>866489</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>874794</v>
+        <v>874797</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9954378970990287</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9884969799639512</v>
+        <v>0.9893727900496352</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9988558266681385</v>
+        <v>0.9988587680191584</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1635</v>
@@ -2600,19 +2600,19 @@
         <v>1743700</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1733821</v>
+        <v>1732451</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1751033</v>
+        <v>1750877</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9902261773693526</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9846161402026901</v>
+        <v>0.9838377577785091</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9943903796014713</v>
+        <v>0.9943016517636717</v>
       </c>
     </row>
     <row r="12">
@@ -2704,19 +2704,19 @@
         <v>8929</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4409</v>
+        <v>4029</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17704</v>
+        <v>17653</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01775004678753547</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.008764960959056777</v>
+        <v>0.008009653365556065</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03519559232663939</v>
+        <v>0.03509441920842819</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>0</v>
@@ -2738,19 +2738,19 @@
         <v>8929</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4110</v>
+        <v>3926</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>19316</v>
+        <v>16607</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.009341981429766754</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.004300659920816799</v>
+        <v>0.004108178653348659</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02021031574284507</v>
+        <v>0.01737524575267101</v>
       </c>
     </row>
     <row r="14">
@@ -2767,19 +2767,19 @@
         <v>494094</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>485319</v>
+        <v>485370</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>498614</v>
+        <v>498994</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9822499532124646</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9648044076733606</v>
+        <v>0.9649055807915718</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9912350390409432</v>
+        <v>0.991990346634444</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>412</v>
@@ -2801,19 +2801,19 @@
         <v>946829</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>936442</v>
+        <v>939151</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>951648</v>
+        <v>951832</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9906580185702333</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9797896842571552</v>
+        <v>0.9826247542473292</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9956993400791833</v>
+        <v>0.9958918213466513</v>
       </c>
     </row>
     <row r="15">
@@ -2905,19 +2905,19 @@
         <v>65826</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>50218</v>
+        <v>49831</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>85545</v>
+        <v>84609</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01930858030491169</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01473030105265255</v>
+        <v>0.01461689329645778</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02509269344749896</v>
+        <v>0.0248182329050109</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -2926,19 +2926,19 @@
         <v>5124</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1995</v>
+        <v>1991</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11527</v>
+        <v>12381</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.001446394065558017</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0005631476449803691</v>
+        <v>0.0005618751877816737</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.00325382931983958</v>
+        <v>0.003494811584905333</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>66</v>
@@ -2947,19 +2947,19 @@
         <v>70950</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>54743</v>
+        <v>55386</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>89693</v>
+        <v>91444</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01020588083426525</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.007874584199983249</v>
+        <v>0.007967029106097603</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01290204236870162</v>
+        <v>0.01315381371640071</v>
       </c>
     </row>
     <row r="17">
@@ -2976,19 +2976,19 @@
         <v>3343319</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3323600</v>
+        <v>3324536</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3358927</v>
+        <v>3359314</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9806914196950883</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.974907306552501</v>
+        <v>0.9751817670949892</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9852696989473472</v>
+        <v>0.9853831067035423</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3279</v>
@@ -2997,19 +2997,19 @@
         <v>3537598</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3531195</v>
+        <v>3530341</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3540727</v>
+        <v>3540731</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.998553605934442</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9967461706801605</v>
+        <v>0.9965051884150948</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9994368523550197</v>
+        <v>0.9994381248122184</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6411</v>
@@ -3018,19 +3018,19 @@
         <v>6880917</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6862174</v>
+        <v>6860423</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6897124</v>
+        <v>6896481</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9897941191657348</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9870979576312984</v>
+        <v>0.9868461862835994</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9921254158000169</v>
+        <v>0.9920329708939025</v>
       </c>
     </row>
     <row r="18">
@@ -3362,19 +3362,19 @@
         <v>24607</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16073</v>
+        <v>15717</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>37342</v>
+        <v>37824</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02181487657708202</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01424938776728826</v>
+        <v>0.0139333345025954</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03310426190188454</v>
+        <v>0.03353227172463813</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -3383,19 +3383,19 @@
         <v>3233</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>0</v>
+        <v>1005</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8461</v>
+        <v>9111</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002566675922109133</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0</v>
+        <v>0.0007981067516649262</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.006717334463382197</v>
+        <v>0.007233642007301263</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>25</v>
@@ -3404,19 +3404,19 @@
         <v>27840</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>18046</v>
+        <v>18287</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>41860</v>
+        <v>40170</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.011660451664354</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007558162574323491</v>
+        <v>0.007659348492226337</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01753237967806179</v>
+        <v>0.01682454323493784</v>
       </c>
     </row>
     <row r="5">
@@ -3433,19 +3433,19 @@
         <v>1103390</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1090655</v>
+        <v>1090173</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1111924</v>
+        <v>1112280</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.978185123422918</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9668957380981155</v>
+        <v>0.9664677282753632</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9857506122327118</v>
+        <v>0.9860666654974046</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1185</v>
@@ -3454,19 +3454,19 @@
         <v>1256328</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1251100</v>
+        <v>1250450</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1259561</v>
+        <v>1258556</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9974333240778909</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9932826655366178</v>
+        <v>0.9927663579926989</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>1</v>
+        <v>0.9992018932483351</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2229</v>
@@ -3475,19 +3475,19 @@
         <v>2359718</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2345698</v>
+        <v>2347388</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2369512</v>
+        <v>2369271</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.988339548335646</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9824676203219382</v>
+        <v>0.9831754567650619</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9924418374256764</v>
+        <v>0.9923406515077735</v>
       </c>
     </row>
     <row r="6">
@@ -3579,19 +3579,19 @@
         <v>5230</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2002</v>
+        <v>2022</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12032</v>
+        <v>13626</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005755135750761749</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002203122753244327</v>
+        <v>0.002224899948942394</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01323880676890673</v>
+        <v>0.0149930037770349</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -3600,19 +3600,19 @@
         <v>5800</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1866</v>
+        <v>2047</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11870</v>
+        <v>12630</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.005762646381304312</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001854479213614201</v>
+        <v>0.002033610109387171</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01179371285430767</v>
+        <v>0.01254864002904701</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>11</v>
@@ -3621,19 +3621,19 @@
         <v>11030</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5604</v>
+        <v>5763</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>19655</v>
+        <v>18946</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.005759082528710478</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002925763912915608</v>
+        <v>0.003008980508628679</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0102621276740702</v>
+        <v>0.00989187383215169</v>
       </c>
     </row>
     <row r="8">
@@ -3650,19 +3650,19 @@
         <v>903595</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>896793</v>
+        <v>895199</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>906823</v>
+        <v>906803</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9942448642492383</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9867611932310951</v>
+        <v>0.9850069962229652</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9977968772467557</v>
+        <v>0.9977751000510576</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>945</v>
@@ -3671,19 +3671,19 @@
         <v>1000675</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>994605</v>
+        <v>993845</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1004609</v>
+        <v>1004428</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9942373536186957</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9882062871456919</v>
+        <v>0.987451359970953</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9981455207863859</v>
+        <v>0.9979663898906128</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1821</v>
@@ -3692,19 +3692,19 @@
         <v>1904270</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1895645</v>
+        <v>1896354</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1909696</v>
+        <v>1909537</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9942409174712895</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9897378723259296</v>
+        <v>0.9901081261678483</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9970742360870843</v>
+        <v>0.9969910194913714</v>
       </c>
     </row>
     <row r="9">
@@ -3796,19 +3796,19 @@
         <v>7500</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3146</v>
+        <v>3078</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15603</v>
+        <v>15023</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.009104069697853103</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0038187488423516</v>
+        <v>0.003736709573649816</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01894175713472186</v>
+        <v>0.01823745593605688</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -3817,19 +3817,19 @@
         <v>3874</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>945</v>
+        <v>935</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11522</v>
+        <v>11210</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.005024787998339441</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.001225508739690237</v>
+        <v>0.00121242552509047</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01494363473216917</v>
+        <v>0.01453826569992817</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -3838,19 +3838,19 @@
         <v>11374</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5250</v>
+        <v>6071</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>19006</v>
+        <v>21593</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.007131828570582066</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.003291996106109939</v>
+        <v>0.003806410437641384</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01191756825834839</v>
+        <v>0.01353936556420389</v>
       </c>
     </row>
     <row r="11">
@@ -3867,19 +3867,19 @@
         <v>816259</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>808156</v>
+        <v>808736</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>820613</v>
+        <v>820681</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9908959303021468</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9810582428652781</v>
+        <v>0.981762544063943</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9961812511576484</v>
+        <v>0.9962632904263501</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>725</v>
@@ -3888,19 +3888,19 @@
         <v>767185</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>759537</v>
+        <v>759849</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>770114</v>
+        <v>770124</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9949752120016606</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9850563652678308</v>
+        <v>0.9854617343000718</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9987744912603098</v>
+        <v>0.9987875744749095</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1505</v>
@@ -3909,19 +3909,19 @@
         <v>1583444</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1575812</v>
+        <v>1573225</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1589568</v>
+        <v>1588747</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.992868171429418</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9880824317416518</v>
+        <v>0.9864606344357962</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9967080038938901</v>
+        <v>0.9961935895623587</v>
       </c>
     </row>
     <row r="12">
@@ -4013,19 +4013,19 @@
         <v>11443</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5370</v>
+        <v>6133</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21352</v>
+        <v>20381</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02258344827194318</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01059862407793468</v>
+        <v>0.01210446397834087</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04213912729060071</v>
+        <v>0.04022194732919029</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -4034,19 +4034,19 @@
         <v>3981</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>947</v>
+        <v>1112</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9871</v>
+        <v>10005</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.008129007534261767</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.001934786278372441</v>
+        <v>0.002271655115136272</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02015770507507251</v>
+        <v>0.02043149522771253</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>14</v>
@@ -4055,19 +4055,19 @@
         <v>15424</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8394</v>
+        <v>9102</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>25903</v>
+        <v>24720</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0154795590390998</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.008424186088590401</v>
+        <v>0.009134859050425024</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02599648717242151</v>
+        <v>0.02480949566103008</v>
       </c>
     </row>
     <row r="14">
@@ -4084,19 +4084,19 @@
         <v>495258</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>485349</v>
+        <v>486320</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>501331</v>
+        <v>500568</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9774165517280569</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9578608727093995</v>
+        <v>0.9597780526708097</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9894013759220653</v>
+        <v>0.9878955360216591</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>451</v>
@@ -4105,19 +4105,19 @@
         <v>485717</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>479827</v>
+        <v>479693</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>488751</v>
+        <v>488586</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9918709924657383</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9798422949249274</v>
+        <v>0.9795685047722873</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9980652137216275</v>
+        <v>0.9977283448848637</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>912</v>
@@ -4126,19 +4126,19 @@
         <v>980974</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>970495</v>
+        <v>971678</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>988004</v>
+        <v>987296</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9845204409609002</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9740035128275781</v>
+        <v>0.9751905043389699</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9915758139114095</v>
+        <v>0.990865140949575</v>
       </c>
     </row>
     <row r="15">
@@ -4230,19 +4230,19 @@
         <v>48780</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>36093</v>
+        <v>34796</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>63965</v>
+        <v>64729</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01448650339923138</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01071868055403662</v>
+        <v>0.01033344961195285</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01899617527812636</v>
+        <v>0.01922303989567081</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>16</v>
@@ -4251,19 +4251,19 @@
         <v>16888</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10130</v>
+        <v>9594</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>27777</v>
+        <v>27078</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.004788489271992583</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.002872251878022775</v>
+        <v>0.002720363489401351</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.007876108908421612</v>
+        <v>0.007677681222776177</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>60</v>
@@ -4272,19 +4272,19 @@
         <v>65668</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>50661</v>
+        <v>49444</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>85539</v>
+        <v>84047</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.009525303522344456</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.007348426805730966</v>
+        <v>0.00717193864578619</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01240758591502164</v>
+        <v>0.01219120696606177</v>
       </c>
     </row>
     <row r="17">
@@ -4301,19 +4301,19 @@
         <v>3318502</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3303317</v>
+        <v>3302553</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3331189</v>
+        <v>3332486</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9855134966007686</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9810038247218736</v>
+        <v>0.980776960104329</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9892813194459634</v>
+        <v>0.9896665503880472</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3306</v>
@@ -4322,19 +4322,19 @@
         <v>3509904</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3499015</v>
+        <v>3499714</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3516662</v>
+        <v>3517198</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9952115107280074</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9921238910915784</v>
+        <v>0.9923223187772244</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9971277481219774</v>
+        <v>0.9972796365105988</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6467</v>
@@ -4343,19 +4343,19 @@
         <v>6828407</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6808536</v>
+        <v>6810028</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6843414</v>
+        <v>6844631</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9904746964776555</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9875924140849781</v>
+        <v>0.9878087930339383</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.992651573194269</v>
+        <v>0.9928280613542141</v>
       </c>
     </row>
     <row r="18">
@@ -4687,19 +4687,19 @@
         <v>9737</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5267</v>
+        <v>5207</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17221</v>
+        <v>16583</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04550581511460689</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02461553193858981</v>
+        <v>0.02433346071997965</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08048202130450205</v>
+        <v>0.07749987292990074</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -4708,19 +4708,19 @@
         <v>2268</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>661</v>
+        <v>683</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5540</v>
+        <v>5945</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01951371565453001</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.005691751677012235</v>
+        <v>0.00587855105513163</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04766704623424578</v>
+        <v>0.05115729226687781</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>16</v>
@@ -4729,19 +4729,19 @@
         <v>12005</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7189</v>
+        <v>7033</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19664</v>
+        <v>19345</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03635740973780312</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02177343613400951</v>
+        <v>0.02129878814053682</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05955456926208644</v>
+        <v>0.05858686814879717</v>
       </c>
     </row>
     <row r="5">
@@ -4758,19 +4758,19 @@
         <v>204233</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>196749</v>
+        <v>197387</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>208703</v>
+        <v>208763</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9544941848853932</v>
+        <v>0.9544941848853931</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9195179786954989</v>
+        <v>0.9225001270701003</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9753844680614105</v>
+        <v>0.9756665392800205</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>147</v>
@@ -4779,19 +4779,19 @@
         <v>113947</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>110675</v>
+        <v>110270</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>115554</v>
+        <v>115532</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.98048628434547</v>
+        <v>0.9804862843454699</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9523329537657546</v>
+        <v>0.9488427077331221</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9943082483229878</v>
+        <v>0.9941214489448682</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>335</v>
@@ -4800,19 +4800,19 @@
         <v>318180</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>310521</v>
+        <v>310840</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>322996</v>
+        <v>323152</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.963642590262197</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9404454307379136</v>
+        <v>0.9414131318512029</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9782265638659905</v>
+        <v>0.9787012118594632</v>
       </c>
     </row>
     <row r="6">
@@ -4904,19 +4904,19 @@
         <v>8248</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3760</v>
+        <v>3644</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16622</v>
+        <v>15598</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01816255289926349</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.008280290550416288</v>
+        <v>0.008024984432765669</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03660369495814911</v>
+        <v>0.03434907314084284</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -4925,19 +4925,19 @@
         <v>2499</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>569</v>
+        <v>605</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6500</v>
+        <v>6344</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01046046573464323</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.002380801419248195</v>
+        <v>0.002532237184720191</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02721139728862247</v>
+        <v>0.02655772679166211</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>12</v>
@@ -4946,19 +4946,19 @@
         <v>10747</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5632</v>
+        <v>5202</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>19780</v>
+        <v>18688</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01550769851242859</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.008127625595854501</v>
+        <v>0.007507243590647588</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02854261582508669</v>
+        <v>0.02696778409895446</v>
       </c>
     </row>
     <row r="8">
@@ -4975,19 +4975,19 @@
         <v>445868</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>437494</v>
+        <v>438518</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>450356</v>
+        <v>450472</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9818374471007366</v>
+        <v>0.9818374471007367</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9633963050418509</v>
+        <v>0.9656509268591571</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9917197094495837</v>
+        <v>0.9919750155672343</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>306</v>
@@ -4996,19 +4996,19 @@
         <v>236367</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>232366</v>
+        <v>232522</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>238297</v>
+        <v>238261</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9895395342653568</v>
+        <v>0.9895395342653569</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9727886027113777</v>
+        <v>0.9734422732083368</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9976191985807518</v>
+        <v>0.9974677628152784</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>724</v>
@@ -5017,19 +5017,19 @@
         <v>682235</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>673202</v>
+        <v>674294</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>687350</v>
+        <v>687780</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9844923014875715</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9714573841749132</v>
+        <v>0.9730322159010457</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9918723744041452</v>
+        <v>0.9924927564093524</v>
       </c>
     </row>
     <row r="9">
@@ -5121,19 +5121,19 @@
         <v>10538</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5079</v>
+        <v>5375</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20422</v>
+        <v>20762</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02089065082617622</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01006773625902437</v>
+        <v>0.01065608079282423</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04048331687037621</v>
+        <v>0.0411574278530227</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -5142,19 +5142,19 @@
         <v>5220</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1794</v>
+        <v>1450</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15245</v>
+        <v>12930</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01969153949617769</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006767736954342446</v>
+        <v>0.005469013335838707</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0575106519628396</v>
+        <v>0.04877706095450009</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>15</v>
@@ -5163,19 +5163,19 @@
         <v>15758</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8495</v>
+        <v>8365</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>26554</v>
+        <v>28181</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02047758221639585</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01103882742638247</v>
+        <v>0.01087023320597901</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03450643299061036</v>
+        <v>0.03662104474934576</v>
       </c>
     </row>
     <row r="11">
@@ -5192,19 +5192,19 @@
         <v>493906</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>484022</v>
+        <v>483682</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>499365</v>
+        <v>499069</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9791093491738238</v>
+        <v>0.9791093491738239</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9595166831296238</v>
+        <v>0.9588425721469773</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9899322637409754</v>
+        <v>0.9893439192071759</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>361</v>
@@ -5213,19 +5213,19 @@
         <v>259868</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>249843</v>
+        <v>252158</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>263294</v>
+        <v>263638</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9803084605038224</v>
+        <v>0.9803084605038223</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9424893480371604</v>
+        <v>0.9512229390454996</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9932322630456576</v>
+        <v>0.9945309866641613</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>847</v>
@@ -5234,19 +5234,19 @@
         <v>753774</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>742978</v>
+        <v>741351</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>761037</v>
+        <v>761167</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9795224177836042</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9654935670093896</v>
+        <v>0.9633789552506539</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9889611725736172</v>
+        <v>0.9891297667940209</v>
       </c>
     </row>
     <row r="12">
@@ -5338,19 +5338,19 @@
         <v>11035</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5213</v>
+        <v>6051</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18665</v>
+        <v>19199</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02283248712364514</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01078632523762292</v>
+        <v>0.01251910360117344</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03861931819458532</v>
+        <v>0.03972399022566068</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -5359,19 +5359,19 @@
         <v>6660</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2333</v>
+        <v>2488</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>16449</v>
+        <v>15446</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.02482943261969958</v>
+        <v>0.02482943261969957</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.008695649728388592</v>
+        <v>0.009275324451726498</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0613206130302155</v>
+        <v>0.05758265825833192</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>18</v>
@@ -5380,19 +5380,19 @@
         <v>17696</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10568</v>
+        <v>10585</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>28434</v>
+        <v>28525</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02354522896253219</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01406111886022852</v>
+        <v>0.01408437356271303</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03783406795235113</v>
+        <v>0.03795519068993641</v>
       </c>
     </row>
     <row r="14">
@@ -5409,19 +5409,19 @@
         <v>472279</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>464649</v>
+        <v>464115</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>478101</v>
+        <v>477263</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9771675128763547</v>
+        <v>0.9771675128763548</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9613806818054145</v>
+        <v>0.9602760097743391</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9892136747623771</v>
+        <v>0.9874808963988266</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>352</v>
@@ -5430,19 +5430,19 @@
         <v>261582</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>251793</v>
+        <v>252796</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>265909</v>
+        <v>265754</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9751705673803005</v>
+        <v>0.9751705673803004</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9386793869697848</v>
+        <v>0.9424173417416684</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9913043502716115</v>
+        <v>0.9907246755482735</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>789</v>
@@ -5451,19 +5451,19 @@
         <v>733860</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>723122</v>
+        <v>723031</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>740988</v>
+        <v>740971</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9764547710374678</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9621659320476488</v>
+        <v>0.9620448093100635</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9859388811397715</v>
+        <v>0.9859156264372869</v>
       </c>
     </row>
     <row r="15">
@@ -5555,19 +5555,19 @@
         <v>39558</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>28109</v>
+        <v>28510</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>54825</v>
+        <v>53637</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02389005630784947</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01697573745453073</v>
+        <v>0.01721756046764894</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03310997989210673</v>
+        <v>0.03239233198382738</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>19</v>
@@ -5576,19 +5576,19 @@
         <v>16647</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10010</v>
+        <v>9902</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>27800</v>
+        <v>27670</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.01873764023016124</v>
+        <v>0.01873764023016125</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01126774467812718</v>
+        <v>0.01114537617684252</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0312922300510637</v>
+        <v>0.03114574660752977</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>61</v>
@@ -5597,19 +5597,19 @@
         <v>56205</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>43588</v>
+        <v>43008</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>74552</v>
+        <v>72782</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02209092003714441</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0171320196628175</v>
+        <v>0.01690402381544142</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0293019886652362</v>
+        <v>0.02860647233705596</v>
       </c>
     </row>
     <row r="17">
@@ -5626,19 +5626,19 @@
         <v>1616286</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1601019</v>
+        <v>1602207</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1627735</v>
+        <v>1627334</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9761099436921507</v>
+        <v>0.9761099436921504</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9668900201078928</v>
+        <v>0.9676076680161726</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9830242625454692</v>
+        <v>0.9827824395323512</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1166</v>
@@ -5647,19 +5647,19 @@
         <v>871764</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>860611</v>
+        <v>860741</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>878401</v>
+        <v>878509</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9812623597698387</v>
+        <v>0.9812623597698389</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9687077699489359</v>
+        <v>0.9688542533924703</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9887322553218728</v>
+        <v>0.9888546238231576</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2695</v>
@@ -5668,19 +5668,19 @@
         <v>2488050</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2469703</v>
+        <v>2471473</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2500667</v>
+        <v>2501247</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9779090799628556</v>
+        <v>0.9779090799628558</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9706980113347639</v>
+        <v>0.9713935276629441</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9828679803371825</v>
+        <v>0.9830959761845587</v>
       </c>
     </row>
     <row r="18">
